--- a/output/google_maps_data_SMA_Gunungkidul.xlsx
+++ b/output/google_maps_data_SMA_Gunungkidul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -507,25 +502,24 @@
           <t>(0274) 391079</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F2" t="n">
-        <v>4.6</v>
+        <v>-7.965351</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.965351</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.599184</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMAN+1+Wonosari/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb342be5bf84f:0x9ee9bfbad0191976!8m2!3d-7.9653511!4d110.5991838!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgELaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTlhhSEpMUkdKQkVBReABAPoBBAgAEC4!16s%2Fm%2F05p43xr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMAN+1+Wonosari/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb342be5bf84f:0x9ee9bfbad0191976!8m2!3d-7.9653511!4d110.5991838!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgELaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTlhhSEpMUkdKQkVBReABAPoBBAgAEC4!16s%2Fm%2F05p43xr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -552,25 +546,24 @@
           <t>(0274) 391122</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.7</v>
+        <v>-7.969744</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.969744</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.594343</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+2+Wonosari/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb36a9dcad38b:0x2f04037386140e17!8m2!3d-7.969744!4d110.594343!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVEyY0U5aGFURlJSUkFC4AEA-gEECAAQOg!16s%2Fm%2F05p31x4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+2+Wonosari/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb36a9dcad38b:0x2f04037386140e17!8m2!3d-7.969744!4d110.594343!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVEyY0U5aGFURlJSUkFC4AEA-gEECAAQOg!16s%2Fm%2F05p31x4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -597,25 +590,24 @@
           <t>(0274) 391176</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.6</v>
+        <v>-7.937232</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.937232</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.574316</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMAN+2+PLAYEN/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4cd9761a7903:0xaded09ef76627e86!8m2!3d-7.937232!4d110.574316!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJpYkhBeVpYWkJSUkFC4AEA-gEECAAQMg!16s%2Fg%2F1tfwgt86?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMAN+2+PLAYEN/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4cd9761a7903:0xaded09ef76627e86!8m2!3d-7.937232!4d110.574316!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJpYkhBeVpYWkJSUkFC4AEA-gEECAAQMg!16s%2Fg%2F1tfwgt86?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -642,25 +634,24 @@
           <t>(0274) 2910550</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>-7.966436</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.966436</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.544961</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Playen/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb2b898cd0e77:0xe2372376371791f4!8m2!3d-7.9664356!4d110.5449606!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVEyYjJSMk5XWlJFQUXgAQD6AQQIABA6!16s%2Fg%2F1wf4qvyh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Playen/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb2b898cd0e77:0xe2372376371791f4!8m2!3d-7.9664356!4d110.5449606!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVEyYjJSMk5XWlJFQUXgAQD6AQQIABA6!16s%2Fg%2F1wf4qvyh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -683,25 +674,24 @@
           <t>0817-9420-901</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.2</v>
+        <v>-8.009957</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.009957</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.64553</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Semanu/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb43935aed767:0x74abbfa038a548bc!8m2!3d-8.0099574!4d110.6455297!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgELaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUmZjM1ZJTW05M1JSQULgAQD6AQQIABAR!16s%2Fg%2F11bz_z6v6c?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Semanu/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb43935aed767:0x74abbfa038a548bc!8m2!3d-8.0099574!4d110.6455297!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgELaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUmZjM1ZJTW05M1JSQULgAQD6AQQIABAR!16s%2Fg%2F11bz_z6v6c?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -724,25 +714,24 @@
           <t>(0274) 3950585</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.2</v>
+        <v>-7.875775</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.875775</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.542808</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Patuk/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4de721e039c3:0xbf377267e2a68efb!8m2!3d-7.8757749!4d110.5428083!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgELaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnRPRGhJWVdWQkVBReABAPoBBAgAECs!16s%2Fg%2F1hm4fybbp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Patuk/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4de721e039c3:0xbf377267e2a68efb!8m2!3d-7.8757749!4d110.5428083!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgELaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnRPRGhJWVdWQkVBReABAPoBBAgAECs!16s%2Fg%2F1hm4fybbp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -765,25 +754,24 @@
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.4</v>
+        <v>-8.022124</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.022124</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.420992</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Panggang/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7babf49aafe391:0xa08bdd24ba5dd528!8m2!3d-8.0221237!4d110.4209916!15sCg9TTUEgR3VudW5na2lkdWySAQZzY2hvb2zgAQA!16s%2Fg%2F1hm328k25?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Panggang/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7babf49aafe391:0xa08bdd24ba5dd528!8m2!3d-8.0221237!4d110.4209916!15sCg9TTUEgR3VudW5na2lkdWySAQZzY2hvb2zgAQA!16s%2Fg%2F1hm328k25?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -810,25 +798,24 @@
           <t>(0274) 391014</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.7</v>
+        <v>-7.95368</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.95368</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.592677</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+Al-Mujahidin+Wonosari/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb335faeb1361:0xa7e59d378476454d!8m2!3d-7.9536796!4d110.5926767!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgELaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlVja3B1YlRGblJSQULgAQD6AQQIABA6!16s%2Fg%2F1hm316zx2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+Al-Mujahidin+Wonosari/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb335faeb1361:0xa7e59d378476454d!8m2!3d-7.9536796!4d110.5926767!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgELaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlVja3B1YlRGblJSQULgAQD6AQQIABA6!16s%2Fg%2F1hm316zx2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -855,25 +842,24 @@
           <t>(0274) 2910288</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.8</v>
+        <v>-7.966095</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.966095</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.672648</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMAN+1+KARANGMOJO/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb522e46a7fb3:0xc264c7357307cb3e!8m2!3d-7.9660953!4d110.6726476!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU15YldaNmRuWm5SUkFC4AEA-gEECAAQJw!16s%2Fg%2F1thh4w2g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMAN+1+KARANGMOJO/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb522e46a7fb3:0xc264c7357307cb3e!8m2!3d-7.9660953!4d110.6726476!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU15YldaNmRuWm5SUkFC4AEA-gEECAAQJw!16s%2Fg%2F1thh4w2g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -900,25 +886,24 @@
           <t>0811-252-173</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.8</v>
+        <v>-8.066053</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.066053</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.757822</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Rongkop/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bc855184564f3:0x59136facf7cf84a8!8m2!3d-8.0660529!4d110.7578215!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJJZDA1ZlpUSkJSUkFC4AEA-gEECAAQNg!16s%2Fg%2F1hm3wxw39?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Rongkop/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bc855184564f3:0x59136facf7cf84a8!8m2!3d-8.0660529!4d110.7578215!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJJZDA1ZlpUSkJSUkFC4AEA-gEECAAQNg!16s%2Fg%2F1hm3wxw39?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -941,25 +926,24 @@
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>3.6</v>
+      </c>
       <c r="F12" t="n">
-        <v>3.6</v>
+        <v>-7.970666</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.970666</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.607682</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA%2FSMK+Dominikus,+Wonosari/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb340238d94d9:0x2646a49d06095f68!8m2!3d-7.9706661!4d110.607682!15sCg9TTUEgR3VudW5na2lkdWySAQtoaWdoX3NjaG9vbOABAA!16s%2Fg%2F11h0vtw0bd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA%2FSMK+Dominikus,+Wonosari/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb340238d94d9:0x2646a49d06095f68!8m2!3d-7.9706661!4d110.607682!15sCg9TTUEgR3VudW5na2lkdWySAQtoaWdoX3NjaG9vbOABAA!16s%2Fg%2F11h0vtw0bd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -986,25 +970,24 @@
           <t>0813-2874-7256</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.6</v>
+        <v>-8.063420000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.063420000000001</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.57749</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMAN+1+Tanjungsari/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb10f7d3ee2df:0x487d7f14072713e5!8m2!3d-8.06342!4d110.57749!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgELaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUXRhazFIV1ZKUkVBReABAPoBBAgWEEA!16s%2Fg%2F1hm2wf3kp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMAN+1+Tanjungsari/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb10f7d3ee2df:0x487d7f14072713e5!8m2!3d-8.06342!4d110.57749!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgELaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUXRhazFIV1ZKUkVBReABAPoBBAgWEEA!16s%2Fg%2F1hm2wf3kp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -1027,25 +1010,24 @@
           <t>391122</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>5</v>
+      </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>-7.969753</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.969753</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.595311</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Pembangunan+1+Wonosari/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb373748e6d31:0x1bf189a4b19dc00f!8m2!3d-7.9697526!4d110.5953112!15sCg9TTUEgR3VudW5na2lkdWySAQZzY2hvb2zgAQA!16s%2Fg%2F11h_34tnyh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Pembangunan+1+Wonosari/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb373748e6d31:0x1bf189a4b19dc00f!8m2!3d-7.9697526!4d110.5953112!15sCg9TTUEgR3VudW5na2lkdWySAQZzY2hvb2zgAQA!16s%2Fg%2F11h_34tnyh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -1068,25 +1050,24 @@
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.5</v>
+        <v>-7.96309</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.96309</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.607998</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Negeri+3+Wonosari/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb35bf29cf32b:0x7355c0075c86b811!8m2!3d-7.9630902!4d110.6079976!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2zgAQA!16s%2Fg%2F1ptx7jt0f?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Negeri+3+Wonosari/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb35bf29cf32b:0x7355c0075c86b811!8m2!3d-7.9630902!4d110.6079976!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2zgAQA!16s%2Fg%2F1ptx7jt0f?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1109,25 +1090,24 @@
           <t>(0274) 2901978</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.1</v>
+        <v>-7.945257</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.945257</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.554801</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+PGRI+Playen/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4de7e98298bf:0x7121cbb7b509bde3!8m2!3d-7.9452568!4d110.5548009!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJYTm1abVIwZG5FQUXgAQD6AQQIABAR!16s%2Fg%2F11h4pq49wn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+PGRI+Playen/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4de7e98298bf:0x7121cbb7b509bde3!8m2!3d-7.9452568!4d110.5548009!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJYTm1abVIwZG5FQUXgAQD6AQQIABAR!16s%2Fg%2F11h4pq49wn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1150,25 +1130,24 @@
           <t>(0274) 392277</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>-7.955644</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.955644</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.67839</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Pembangunan+2+Karangmojo/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4acbfee70d41:0xd2fe167ca18f02a4!8m2!3d-7.9556442!4d110.6783896!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEGc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU14TkMxWGNrbDNFQUXgAQD6AQQIABAb!16s%2Fg%2F1ptwt24b_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Pembangunan+2+Karangmojo/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4acbfee70d41:0xd2fe167ca18f02a4!8m2!3d-7.9556442!4d110.6783896!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEGc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU14TkMxWGNrbDNFQUXgAQD6AQQIABAb!16s%2Fg%2F1ptwt24b_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1187,25 +1166,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>-7.865958</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.865958</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.7385</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+-SMA-SMK-Gotong+Royong+Semin/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a35ddb117c2a1:0x2916dcd763134259!8m2!3d-7.8659577!4d110.7385001!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSS2FuQnliWEZuUlJBQuABAPoBBAgAEBo!16s%2Fg%2F1hm1pqr_r?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+-SMA-SMK-Gotong+Royong+Semin/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a35ddb117c2a1:0x2916dcd763134259!8m2!3d-7.8659577!4d110.7385001!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSS2FuQnliWEZuUlJBQuABAPoBBAgAEBo!16s%2Fg%2F1hm1pqr_r?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -1228,25 +1206,24 @@
           <t>(0274) 4390389</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.6</v>
+        <v>-7.856653</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.856653</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.735221</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+N+1+Semin/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a360b25d177c9:0xe9b4ed7f5411add0!8m2!3d-7.8566531!4d110.7352207!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEGc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJTZWpWRFYwWjNFQUXgAQD6AQQIGRAc!16s%2Fg%2F1pzrdy1x7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+N+1+Semin/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a360b25d177c9:0xe9b4ed7f5411add0!8m2!3d-7.8566531!4d110.7352207!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEGc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJTZWpWRFYwWjNFQUXgAQD6AQQIGRAc!16s%2Fg%2F1pzrdy1x7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1265,25 +1242,24 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>5</v>
+      </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>-7.837256</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.837256</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.700763</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+Ngawen+Gunungkidul/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a495efcd8d465:0xd3c0cb1827879347!8m2!3d-7.8372565!4d110.7007625!15sCg9TTUEgR3VudW5na2lkdWySAQtoaWdoX3NjaG9vbOABAA!16s%2Fg%2F11kpy8dfqm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+Ngawen+Gunungkidul/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a495efcd8d465:0xd3c0cb1827879347!8m2!3d-7.8372565!4d110.7007625!15sCg9TTUEgR3VudW5na2lkdWySAQtoaWdoX3NjaG9vbOABAA!16s%2Fg%2F11kpy8dfqm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1306,25 +1282,24 @@
           <t>(0274) 392277</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.7</v>
+        <v>-7.95526</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.95526</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.678192</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+(STM)+Pembangunan+Karangmojo/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb53a9923daab:0x73ed8fa7003565f8!8m2!3d-7.9552602!4d110.6781921!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjFjeTFVUlhKQlJSQULgAQD6AQUI9gEQQw!16s%2Fg%2F1hm30m44p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+(STM)+Pembangunan+Karangmojo/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb53a9923daab:0x73ed8fa7003565f8!8m2!3d-7.9552602!4d110.6781921!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjFjeTFVUlhKQlJSQULgAQD6AQUI9gEQQw!16s%2Fg%2F1hm30m44p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1351,25 +1326,24 @@
           <t>(0274) 391019</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.7</v>
+        <v>-7.958267</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.958267</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.593083</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Negeri+2+Wonosari/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb337c3ce9955:0x557ead0baaada682!8m2!3d-7.9582669!4d110.5930825!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUXRiRXRUZUY5QlJSQULgAQD6AQQIABAv!16s%2Fg%2F1tsgz48x?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Negeri+2+Wonosari/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb337c3ce9955:0x557ead0baaada682!8m2!3d-7.9582669!4d110.5930825!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUXRiRXRUZUY5QlJSQULgAQD6AQQIABAv!16s%2Fg%2F1tsgz48x?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -1396,25 +1370,24 @@
           <t>(0274) 391377</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.8</v>
+        <v>-7.971484</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.971484</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.593853</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MAN+1+Gunungkidul/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb36ac63f8e2f:0x773e68dc2a808114!8m2!3d-7.9714839!4d110.5938527!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU50YWpWSE9ESkJSUkFC4AEA-gEECCYQDw!16s%2Fg%2F1hm23xw9b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MAN+1+Gunungkidul/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb36ac63f8e2f:0x773e68dc2a808114!8m2!3d-7.9714839!4d110.5938527!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU50YWpWSE9ESkJSUkFC4AEA-gEECCYQDw!16s%2Fg%2F1hm23xw9b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -1441,25 +1414,24 @@
           <t>(0274) 3950122</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.7</v>
+        <v>-7.970717</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.970717</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.717549</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+Ponjong/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bca9c6ab79bc9:0xcab1d15efbe39e77!8m2!3d-7.9707171!4d110.7175488!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUkNjbVpRZGtsQkVBReABAPoBBAgAECo!16s%2Fg%2F1hm3t58cr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+Ponjong/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bca9c6ab79bc9:0xcab1d15efbe39e77!8m2!3d-7.9707171!4d110.7175488!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUkNjbVpRZGtsQkVBReABAPoBBAgAECo!16s%2Fg%2F1hm3t58cr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1486,25 +1458,24 @@
           <t>(0274) 391991</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.7</v>
+        <v>-7.967672</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.967672</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.593112</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Yappi+Wonosari+Gunungkidul/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb34078b07db5:0xc95cbf427dc6460e!8m2!3d-7.9676717!4d110.5931123!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUTJkSFJUUVRaM1JSQULgAQD6AQQIABBB!16s%2Fg%2F11g69w9qd9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Yappi+Wonosari+Gunungkidul/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb34078b07db5:0xc95cbf427dc6460e!8m2!3d-7.9676717!4d110.5931123!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUTJkSFJUUVRaM1JSQULgAQD6AQQIABBB!16s%2Fg%2F11g69w9qd9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1527,25 +1498,24 @@
           <t>0878-3812-3057</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.4</v>
+        <v>-7.839936</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.839936</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.701831</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+(SMEA)+Sanjaya+Gunungkidul/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a49dd69e96b27:0xd9199b7e6644a61a!8m2!3d-7.8399359!4d110.7018312!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXRNbU51V0dwblJSQULgAQD6AQQIABAa!16s%2Fg%2F12q4rktrh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+(SMEA)+Sanjaya+Gunungkidul/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a49dd69e96b27:0xd9199b7e6644a61a!8m2!3d-7.8399359!4d110.7018312!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXRNbU51V0dwblJSQULgAQD6AQQIABAa!16s%2Fg%2F12q4rktrh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1564,25 +1534,24 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>5</v>
+      </c>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>-7.998308</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.998308</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.652795</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+LHI+gunung+kidul/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb50017a600ed:0xd808d237fbfce841!8m2!3d-7.9983078!4d110.6527953!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgELaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTklOV0Y2VmpWblJSQULgAQD6AQQIABA_!16s%2Fg%2F11w1ljvpdz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+LHI+gunung+kidul/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb50017a600ed:0xd808d237fbfce841!8m2!3d-7.9983078!4d110.6527953!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgELaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTklOV0Y2VmpWblJSQULgAQD6AQQIABA_!16s%2Fg%2F11w1ljvpdz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1609,25 +1578,24 @@
           <t>(0274) 391054</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.7</v>
+        <v>-7.967051</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.967051</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.600267</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Negeri+1+Wonosari/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb341819b6515:0x684c8c707ef4b12b!8m2!3d-7.9670515!4d110.6002665!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjFka3RITW5CM1JSQULgAQD6AQQIABAl!16s%2Fg%2F1tfn5ncr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Negeri+1+Wonosari/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb341819b6515:0x684c8c707ef4b12b!8m2!3d-7.9670515!4d110.6002665!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjFka3RITW5CM1JSQULgAQD6AQQIABAl!16s%2Fg%2F1tfn5ncr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1654,25 +1622,24 @@
           <t>0819-0377-7370</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>5</v>
+      </c>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>-7.867939</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.867939</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.620132</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MA+Ma'arif+Nglipar/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4bfe544b7677:0x4b4999723940e255!8m2!3d-7.8679395!4d110.6201322!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEGc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5sZUdSSE5XWlJFQUXgAQD6AQQIABAX!16s%2Fg%2F11cjj089zd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MA+Ma'arif+Nglipar/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4bfe544b7677:0x4b4999723940e255!8m2!3d-7.8679395!4d110.6201322!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEGc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5sZUdSSE5XWlJFQUXgAQD6AQQIABAX!16s%2Fg%2F11cjj089zd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1695,25 +1662,24 @@
           <t>0811-2519-173</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.7</v>
+        <v>-8.015815</v>
       </c>
       <c r="G30" t="n">
-        <v>-8.015815</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.735064</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Negeri+1+Ponjong/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bca10943d464b:0xe62eca065325aff9!8m2!3d-8.0158154!4d110.7350642!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXdMVnAyTnpkQlJSQULgAQD6AQQIABAo!16s%2Fg%2F1pzszh0j9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Negeri+1+Ponjong/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bca10943d464b:0xe62eca065325aff9!8m2!3d-8.0158154!4d110.7350642!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXdMVnAyTnpkQlJSQULgAQD6AQQIABAo!16s%2Fg%2F1pzszh0j9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1733,22 +1699,21 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>-7.97849</v>
+      </c>
       <c r="G31" t="n">
-        <v>-7.97849</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.47763</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMA+Pembangunan+IV+Playen/@-7.97849,110.1892389,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bad1ee2c9dda9:0xf39ff1e53cd6c5e3!8m2!3d-7.97849!4d110.47763!15sCg9TTUEgR3VudW5na2lkdWySARJzZW5pb3JfaGlnaF9zY2hvb2zgAQA!16s%2Fg%2F1hm3frcfq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1771,25 +1736,24 @@
           <t>(0274) 7113171</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.6</v>
+        <v>-7.859663</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.859663</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.64152</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Negeri+1+Nglipar/@-7.8596633,110.3531291,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4c09e825f135:0xdeaf050c634b070!8m2!3d-7.8596633!4d110.6415202!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEXZWR1Y2F0aW9uYWxfaW5zdGl0dXRpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUmxkemREVW05QlJSQULgAQD6AQQIABBG!16s%2Fg%2F11ckr6lfr8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Negeri+1+Nglipar/@-7.8596633,110.3531291,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4c09e825f135:0xdeaf050c634b070!8m2!3d-7.8596633!4d110.6415202!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEXZWR1Y2F0aW9uYWxfaW5zdGl0dXRpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUmxkemREVW05QlJSQULgAQD6AQQIABBG!16s%2Fg%2F11ckr6lfr8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1812,25 +1776,24 @@
           <t>0878-3813-5197</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.3</v>
+        <v>-7.939362</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.939362</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.770703</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+IKIP+VETERAN+III+TAMBAKROMO/@-7.8596633,110.3531291,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a34d2b98944df:0xb765c0f16e566364!8m2!3d-7.9393625!4d110.7707031!15sCg9TTUEgR3VudW5na2lkdWySAQZzY2hvb2zgAQA!16s%2Fg%2F11c38hfw5y?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+IKIP+VETERAN+III+TAMBAKROMO/@-7.8596633,110.3531291,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a34d2b98944df:0xb765c0f16e566364!8m2!3d-7.9393625!4d110.7707031!15sCg9TTUEgR3VudW5na2lkdWySAQZzY2hvb2zgAQA!16s%2Fg%2F11c38hfw5y?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -1857,25 +1820,24 @@
           <t>0878-3950-3800</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.5</v>
+        <v>-7.976624</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.976624</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.707454</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+BAITUL+QURAN+YOGYAKARTA/@-7.8596633,110.3531291,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb55b232ad85d:0x7fcbaf4899b401de!8m2!3d-7.9766242!4d110.7074544!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEGc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5DZW1GVFFUbDNSUkFC4AEA-gEECAAQPw!16s%2Fg%2F11k2mprcs4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+BAITUL+QURAN+YOGYAKARTA/@-7.8596633,110.3531291,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb55b232ad85d:0x7fcbaf4899b401de!8m2!3d-7.9766242!4d110.7074544!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEGc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5DZW1GVFFUbDNSUkFC4AEA-gEECAAQPw!16s%2Fg%2F11k2mprcs4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1898,25 +1860,24 @@
           <t>0819-0416-4841</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>5</v>
+      </c>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>-7.943946</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.943946</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.553917</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Pembangunan+4+Playen/@-7.8596633,110.3531291,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4d31041bc153:0xa20f75f2733c3f89!8m2!3d-7.9439461!4d110.5539172!15sCg9TTUEgR3VudW5na2lkdWySAQZzY2hvb2zgAQA!16s%2Fg%2F11f3xg69hd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Pembangunan+4+Playen/@-7.8596633,110.3531291,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4d31041bc153:0xa20f75f2733c3f89!8m2!3d-7.9439461!4d110.5539172!15sCg9TTUEgR3VudW5na2lkdWySAQZzY2hvb2zgAQA!16s%2Fg%2F11f3xg69hd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -1943,25 +1904,24 @@
           <t>0813-1148-6884</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>5</v>
+      </c>
       <c r="F36" t="n">
-        <v>5</v>
+        <v>-7.922977</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.922977</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.548502</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Buahati+Islamic+School+Yogyakarta/@-7.8596633,110.3531291,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4d1b9235e98f:0x813bc7d69c05397e!8m2!3d-7.9229768!4d110.5485018!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU53Y0dGUGNHWm5FQUXgAQD6AQQIABA3!16s%2Fg%2F11n1jfb73k?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Buahati+Islamic+School+Yogyakarta/@-7.8596633,110.3531291,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4d1b9235e98f:0x813bc7d69c05397e!8m2!3d-7.9229768!4d110.5485018!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU53Y0dGUGNHWm5FQUXgAQD6AQQIABA3!16s%2Fg%2F11n1jfb73k?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -1984,25 +1944,24 @@
           <t>(0274) 2910458</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F37" t="n">
-        <v>4.5</v>
+        <v>-7.966595</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.966595</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.721197</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+MA'ARIF+PONJONG/@-7.8596633,110.3531291,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bcb1cecc75263:0x75ac2a1bd356f916!8m2!3d-7.9665952!4d110.7211972!15sCg9TTUEgR3VudW5na2lkdWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbOABAA!16s%2Fg%2F1hm316p3t?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+MA'ARIF+PONJONG/@-7.8596633,110.3531291,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bcb1cecc75263:0x75ac2a1bd356f916!8m2!3d-7.9665952!4d110.7211972!15sCg9TTUEgR3VudW5na2lkdWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbOABAA!16s%2Fg%2F1hm316p3t?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2029,25 +1988,24 @@
           <t>(0274) 7101233</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F38" t="n">
-        <v>4.4</v>
+        <v>-7.844133</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.844133</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.592678</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMKN+1+Gedang+Sari/@-7.8596633,110.3531291,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4ee862acd561:0x50d67e81497bd112!8m2!3d-7.8441334!4d110.5926784!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2zgAQA!16s%2Fg%2F1hm5vsww8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMKN+1+Gedang+Sari/@-7.8596633,110.3531291,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4ee862acd561:0x50d67e81497bd112!8m2!3d-7.8441334!4d110.5926784!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2zgAQA!16s%2Fg%2F1hm5vsww8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2070,25 +2028,24 @@
           <t>(0274) 391158</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>5</v>
+      </c>
       <c r="F39" t="n">
-        <v>5</v>
+        <v>-7.969995</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.969995</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.594184</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Perpustakaan+SMA+Negeri+2+Wonosari+Gunungkidul+Yogyakarta/@-7.8596633,110.3531291,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb344079d6841:0xfec2dbcce9825edc!8m2!3d-7.9699949!4d110.5941843!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEHbGlicmFyeZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOT05EbHBVbkJSUlJBQuABAPoBBAgAEBg!16s%2Fg%2F1pzq_63sd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Perpustakaan+SMA+Negeri+2+Wonosari+Gunungkidul+Yogyakarta/@-7.8596633,110.3531291,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb344079d6841:0xfec2dbcce9825edc!8m2!3d-7.9699949!4d110.5941843!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEHbGlicmFyeZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOT05EbHBVbkJSUlJBQuABAPoBBAgAEBg!16s%2Fg%2F1pzq_63sd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2115,25 +2072,24 @@
           <t>(0274) 2910458</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>3</v>
+      </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>-7.966552</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.966552</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.721248</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sekolah+Menengah+Atas+(SMA)+Pembangunan+3+Ponjong/@-7.8596633,110.3531291,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bca9371124deb:0x79767a595a4b5599!8m2!3d-7.9665523!4d110.7212476!15sCg9TTUEgR3VudW5na2lkdWySAQtoaWdoX3NjaG9vbOABAA!16s%2Fg%2F1pzxc4kwx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sekolah+Menengah+Atas+(SMA)+Pembangunan+3+Ponjong/@-7.8596633,110.3531291,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bca9371124deb:0x79767a595a4b5599!8m2!3d-7.9665523!4d110.7212476!15sCg9TTUEgR3VudW5na2lkdWySAQtoaWdoX3NjaG9vbOABAA!16s%2Fg%2F1pzxc4kwx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2160,25 +2116,24 @@
           <t>0811-263-068</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F41" t="n">
-        <v>4.4</v>
+        <v>-8.047480999999999</v>
       </c>
       <c r="G41" t="n">
-        <v>-8.047480999999999</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.510643</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Negeri+1+Saptosari/@-8.0474814,110.2222517,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bac1b64d2a863:0x2d1a36a2f9246f7e!8m2!3d-8.0474814!4d110.5106428!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkxlVmt6VEdKbkVBReABAPoBBAhtEEI!16s%2Fg%2F1pzt_wg3z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Negeri+1+Saptosari/@-8.0474814,110.2222517,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bac1b64d2a863:0x2d1a36a2f9246f7e!8m2!3d-8.0474814!4d110.5106428!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkxlVmt6VEdKbkVBReABAPoBBAhtEEI!16s%2Fg%2F1pzt_wg3z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -2197,25 +2152,24 @@
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F42" t="n">
-        <v>4.2</v>
+        <v>-8.078366000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>-8.078366000000001</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.624736</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+(SMEA)+Muhammadiyah+Tepus/@-8.0474814,110.2222517,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb72eec470333:0x870f1c3226938e44!8m2!3d-8.078366!4d110.6247363!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTTJNbEJ5ZHpGUlJSQULgAQD6AQQIABBA!16s%2Fg%2F1hm5t2wdr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+(SMEA)+Muhammadiyah+Tepus/@-8.0474814,110.2222517,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb72eec470333:0x870f1c3226938e44!8m2!3d-8.078366!4d110.6247363!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTTJNbEJ5ZHpGUlJSQULgAQD6AQQIABBA!16s%2Fg%2F1hm5t2wdr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2242,25 +2196,24 @@
           <t>0858-6832-7509</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F43" t="n">
-        <v>4.7</v>
+        <v>-7.940528</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.940528</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.553399</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MTs+Al+I'anah+Playen/@-8.0474814,110.2222517,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4d3e55555555:0x7c0d54a9d2b68b49!8m2!3d-7.9405276!4d110.5533992!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEGc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJQZHpZMlYweFJFQUXgAQD6AQQIABAT!16s%2Fg%2F11bc7v37wf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MTs+Al+I'anah+Playen/@-8.0474814,110.2222517,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4d3e55555555:0x7c0d54a9d2b68b49!8m2!3d-7.9405276!4d110.5533992!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEGc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJQZHpZMlYweFJFQUXgAQD6AQQIABAT!16s%2Fg%2F11bc7v37wf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2283,25 +2236,24 @@
           <t>(0272) 551584</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F44" t="n">
-        <v>4.6</v>
+        <v>-7.606937</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.606937</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.706551</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Wonosari/@-7.606937,110.4181599,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a5ad130acdc83:0x60dda90ba43eb961!8m2!3d-7.606937!4d110.706551!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU0yZDJaNk5VRlJFQUXgAQD6AQQIABBB!16s%2Fg%2F1hm3dbtmt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Wonosari/@-7.606937,110.4181599,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a5ad130acdc83:0x60dda90ba43eb961!8m2!3d-7.606937!4d110.706551!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU0yZDJaNk5VRlJFQUXgAQD6AQQIABBB!16s%2Fg%2F1hm3dbtmt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -2324,25 +2276,24 @@
           <t>(0274) 522609</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F45" t="n">
-        <v>4.8</v>
+        <v>-7.969936</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.969936</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.716946</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMU+Muh+Ponjong/@-7.9699359,110.4285548,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb55f25b392fb:0xe145948724e4cb3a!8m2!3d-7.9699359!4d110.7169459!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgELaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTmxMVTlYU2pOM1JSQULgAQD6AQQIABA0!16s%2Fg%2F1pzwkx2py?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMU+Muh+Ponjong/@-7.9699359,110.4285548,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb55f25b392fb:0xe145948724e4cb3a!8m2!3d-7.9699359!4d110.7169459!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgELaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTmxMVTlYU2pOM1JSQULgAQD6AQQIABA0!16s%2Fg%2F1pzwkx2py?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2369,25 +2320,24 @@
           <t>(0274) 392504</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F46" t="n">
-        <v>4.6</v>
+        <v>-7.945443</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.945443</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.557306</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+2+Playen/@-7.945443,110.2689149,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4d2e029d38ef:0x94dee692dbb1bf1c!8m2!3d-7.945443!4d110.557306!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2zgAQA!16s%2Fg%2F1hm5jdk0h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+2+Playen/@-7.945443,110.2689149,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4d2e029d38ef:0x94dee692dbb1bf1c!8m2!3d-7.945443!4d110.557306!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2zgAQA!16s%2Fg%2F1hm5jdk0h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -2407,22 +2357,21 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>-7.937172</v>
+      </c>
       <c r="G47" t="n">
-        <v>-7.937172</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.578157</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMA+Logandeng/@-7.945443,110.2689149,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4d0034fea29d:0x13f5ca54bdeeb144!8m2!3d-7.9371723!4d110.5781567!15sCg9TTUEgR3VudW5na2lkdWySAQtoaWdoX3NjaG9vbOABAA!16s%2Fg%2F11w4l4dctj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2441,25 +2390,24 @@
           <t>(0274) 391373</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F48" t="n">
-        <v>4.9</v>
+        <v>-7.954415</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.954415</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.590059</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+45+WONOSARI/@-7.945443,110.2689149,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb335d3200403:0xafe9d9c96a257e8f!8m2!3d-7.9544146!4d110.590059!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTlhOazR6T0ZSbkVBReABAPoBBAgAEBY!16s%2Fg%2F11f1cq18v5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+45+WONOSARI/@-7.945443,110.2689149,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb335d3200403:0xafe9d9c96a257e8f!8m2!3d-7.9544146!4d110.590059!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTlhOazR6T0ZSbkVBReABAPoBBAgAEBY!16s%2Fg%2F11f1cq18v5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -2478,25 +2426,24 @@
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>3.5</v>
+      </c>
       <c r="F49" t="n">
-        <v>3.5</v>
+        <v>-8.082141999999999</v>
       </c>
       <c r="G49" t="n">
-        <v>-8.082141999999999</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.763328</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Bhina+Karya+1+Rongkop/@-8.0821419,110.4749369,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bc8f4ff39013d:0x979aa001e720ca23!8m2!3d-8.0821419!4d110.763328!15sCg9TTUEgR3VudW5na2lkdWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbOABAA!16s%2Fg%2F1pzw68w71?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Bhina+Karya+1+Rongkop/@-8.0821419,110.4749369,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bc8f4ff39013d:0x979aa001e720ca23!8m2!3d-8.0821419!4d110.763328!15sCg9TTUEgR3VudW5na2lkdWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbOABAA!16s%2Fg%2F1pzw68w71?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2523,25 +2470,24 @@
           <t>(0274) 391298</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F50" t="n">
-        <v>4.7</v>
+        <v>-7.951744</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.951744</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.587301</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+1+Playen/@-7.9517441,110.2989102,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4cdbaaac76b5:0x851eca431cde8d0!8m2!3d-7.9517441!4d110.5873013!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjZlalZ5TkRGUlJSQULgAQD6AQQIABAz!16s%2Fg%2F1tl5_h9s?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+1+Playen/@-7.9517441,110.2989102,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4cdbaaac76b5:0x851eca431cde8d0!8m2!3d-7.9517441!4d110.5873013!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjZlalZ5TkRGUlJSQULgAQD6AQQIABAz!16s%2Fg%2F1tl5_h9s?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2568,25 +2514,24 @@
           <t>(0274) 496040</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F51" t="n">
-        <v>4.6</v>
+        <v>-7.75753</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.75753</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.483543</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Kalasan/@-7.9517441,110.2989102,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a5afaefe4597b:0x38703350fa1fd488!8m2!3d-7.75753!4d110.483543!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJYY0dGUFdVTlJFQUXgAQD6AQQIABAx!16s%2Fg%2F1hm63msk5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Kalasan/@-7.9517441,110.2989102,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a5afaefe4597b:0x38703350fa1fd488!8m2!3d-7.75753!4d110.483543!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJYY0dGUFdVTlJFQUXgAQD6AQQIABAx!16s%2Fg%2F1hm63msk5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2606,22 +2551,21 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>-7.937278</v>
+      </c>
       <c r="G52" t="n">
-        <v>-7.937278</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.604528</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/TIM+Pengembang+Dit.+SMA/@-7.9517441,110.2989102,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4d9394aed297:0x6d2807c4537889a4!8m2!3d-7.9372778!4d110.6045278!15sCg9TTUEgR3VudW5na2lkdWySAQtoaWdoX3NjaG9vbOABAA!16s%2Fg%2F11svny5q4h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
